--- a/MainTop/01.02.2025 Таня ВБ/print_print_sorted.xlsx
+++ b/MainTop/01.02.2025 Таня ВБ/print_print_sorted.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\01.02.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\01.02.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD6FB8-0ABE-4710-8BF1-5B1B8D302C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCA5773-B5EF-4EE3-9123-AB6E77F85288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -462,14 +451,14 @@
     <t>Термонаклейка Аниме девочка черные очки язык</t>
   </si>
   <si>
-    <t>в 1 город</t>
+    <t>всего</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,15 +470,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -599,14 +579,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -922,14 +901,14 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
   </cols>
@@ -938,11 +917,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
         <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -959,7 +938,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="2">
-        <f>B2/4</f>
+        <f t="shared" ref="C2:C33" si="0">B2/4</f>
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -977,7 +956,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="2">
-        <f>B3/4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -995,7 +974,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="2">
-        <f>B4/4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1013,7 +992,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="2">
-        <f>B5/4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1031,7 +1010,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1049,7 +1028,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="2">
-        <f>B7/4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1060,2324 +1039,2324 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>36</v>
       </c>
-      <c r="C8" s="6">
-        <f>B8/4</f>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>36</v>
       </c>
-      <c r="C9" s="6">
-        <f>B9/4</f>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>36</v>
       </c>
-      <c r="C10" s="6">
-        <f>B10/4</f>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>36</v>
       </c>
-      <c r="C11" s="6">
-        <f>B11/4</f>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>32</v>
       </c>
-      <c r="C12" s="6">
-        <f>B12/4</f>
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>32</v>
       </c>
-      <c r="C13" s="6">
-        <f>B13/4</f>
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>32</v>
       </c>
-      <c r="C14" s="6">
-        <f>B14/4</f>
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>28</v>
       </c>
-      <c r="C15" s="6">
-        <f>B15/4</f>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>28</v>
       </c>
-      <c r="C16" s="6">
-        <f>B16/4</f>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>28</v>
       </c>
-      <c r="C17" s="6">
-        <f>B17/4</f>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
-        <f>B18/4</f>
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>24</v>
       </c>
-      <c r="C19" s="8">
-        <f>B19/4</f>
-        <v>6</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>24</v>
       </c>
-      <c r="C20" s="8">
-        <f>B20/4</f>
-        <v>6</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>24</v>
       </c>
-      <c r="C21" s="8">
-        <f>B21/4</f>
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22" s="8">
-        <f>B22/4</f>
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
-        <f>B23/4</f>
-        <v>5</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>20</v>
       </c>
-      <c r="C24" s="8">
-        <f>B24/4</f>
-        <v>5</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>20</v>
       </c>
-      <c r="C25" s="8">
-        <f>B25/4</f>
-        <v>5</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C25" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>20</v>
       </c>
-      <c r="C26" s="8">
-        <f>B26/4</f>
-        <v>5</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>20</v>
       </c>
-      <c r="C27" s="8">
-        <f>B27/4</f>
-        <v>5</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>16</v>
       </c>
-      <c r="C28" s="8">
-        <f>B28/4</f>
-        <v>4</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>16</v>
       </c>
-      <c r="C29" s="8">
-        <f>B29/4</f>
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>16</v>
       </c>
-      <c r="C30" s="8">
-        <f>B30/4</f>
-        <v>4</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>16</v>
       </c>
-      <c r="C31" s="8">
-        <f>B31/4</f>
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="C31" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>12</v>
       </c>
-      <c r="C32" s="8">
-        <f>B32/4</f>
+      <c r="C32" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>12</v>
       </c>
-      <c r="C33" s="8">
-        <f>B33/4</f>
+      <c r="C33" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>12</v>
       </c>
-      <c r="C34" s="8">
-        <f>B34/4</f>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:C65" si="1">B34/4</f>
         <v>3</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>12</v>
       </c>
-      <c r="C35" s="8">
-        <f>B35/4</f>
+      <c r="C35" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>12</v>
       </c>
-      <c r="C36" s="8">
-        <f>B36/4</f>
+      <c r="C36" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>12</v>
       </c>
-      <c r="C37" s="8">
-        <f>B37/4</f>
+      <c r="C37" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>12</v>
       </c>
-      <c r="C38" s="8">
-        <f>B38/4</f>
+      <c r="C38" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>12</v>
       </c>
-      <c r="C39" s="10">
-        <f>B39/4</f>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>12</v>
       </c>
-      <c r="C40" s="10">
-        <f>B40/4</f>
+      <c r="C40" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>12</v>
       </c>
-      <c r="C41" s="10">
-        <f>B41/4</f>
+      <c r="C41" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>12</v>
       </c>
-      <c r="C42" s="10">
-        <f>B42/4</f>
+      <c r="C42" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>12</v>
       </c>
-      <c r="C43" s="10">
-        <f>B43/4</f>
+      <c r="C43" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>12</v>
       </c>
-      <c r="C44" s="10">
-        <f>B44/4</f>
+      <c r="C44" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>12</v>
       </c>
-      <c r="C45" s="10">
-        <f>B45/4</f>
+      <c r="C45" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="9">
-        <v>8</v>
-      </c>
-      <c r="C46" s="10">
-        <f>B46/4</f>
+      <c r="B46" s="8">
+        <v>8</v>
+      </c>
+      <c r="C46" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="9">
-        <v>8</v>
-      </c>
-      <c r="C47" s="10">
-        <f>B47/4</f>
+      <c r="B47" s="8">
+        <v>8</v>
+      </c>
+      <c r="C47" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="9">
-        <v>8</v>
-      </c>
-      <c r="C48" s="10">
-        <f>B48/4</f>
+      <c r="B48" s="8">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="9">
-        <v>8</v>
-      </c>
-      <c r="C49" s="10">
-        <f>B49/4</f>
+      <c r="B49" s="8">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="9">
-        <v>8</v>
-      </c>
-      <c r="C50" s="10">
-        <f>B50/4</f>
+      <c r="B50" s="8">
+        <v>8</v>
+      </c>
+      <c r="C50" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="9">
-        <v>8</v>
-      </c>
-      <c r="C51" s="10">
-        <f>B51/4</f>
+      <c r="B51" s="8">
+        <v>8</v>
+      </c>
+      <c r="C51" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="9">
-        <v>8</v>
-      </c>
-      <c r="C52" s="10">
-        <f>B52/4</f>
+      <c r="B52" s="8">
+        <v>8</v>
+      </c>
+      <c r="C52" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="9">
-        <v>8</v>
-      </c>
-      <c r="C53" s="10">
-        <f>B53/4</f>
+      <c r="B53" s="8">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="9">
-        <v>8</v>
-      </c>
-      <c r="C54" s="10">
-        <f>B54/4</f>
+      <c r="B54" s="8">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="9">
-        <v>8</v>
-      </c>
-      <c r="C55" s="10">
-        <f>B55/4</f>
+      <c r="B55" s="8">
+        <v>8</v>
+      </c>
+      <c r="C55" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="9">
-        <v>8</v>
-      </c>
-      <c r="C56" s="10">
-        <f>B56/4</f>
+      <c r="B56" s="8">
+        <v>8</v>
+      </c>
+      <c r="C56" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="9">
-        <v>8</v>
-      </c>
-      <c r="C57" s="10">
-        <f>B57/4</f>
+      <c r="B57" s="8">
+        <v>8</v>
+      </c>
+      <c r="C57" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="9">
-        <v>8</v>
-      </c>
-      <c r="C58" s="10">
-        <f>B58/4</f>
+      <c r="B58" s="8">
+        <v>8</v>
+      </c>
+      <c r="C58" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="9">
-        <v>8</v>
-      </c>
-      <c r="C59" s="10">
-        <f>B59/4</f>
+      <c r="B59" s="8">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="9">
-        <v>8</v>
-      </c>
-      <c r="C60" s="10">
-        <f>B60/4</f>
+      <c r="B60" s="8">
+        <v>8</v>
+      </c>
+      <c r="C60" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="9">
-        <v>8</v>
-      </c>
-      <c r="C61" s="10">
-        <f>B61/4</f>
+      <c r="B61" s="8">
+        <v>8</v>
+      </c>
+      <c r="C61" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="9">
-        <v>8</v>
-      </c>
-      <c r="C62" s="10">
-        <f>B62/4</f>
+      <c r="B62" s="8">
+        <v>8</v>
+      </c>
+      <c r="C62" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="9">
-        <v>8</v>
-      </c>
-      <c r="C63" s="10">
-        <f>B63/4</f>
+      <c r="B63" s="8">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="9">
-        <v>8</v>
-      </c>
-      <c r="C64" s="10">
-        <f>B64/4</f>
+      <c r="B64" s="8">
+        <v>8</v>
+      </c>
+      <c r="C64" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="9">
-        <v>8</v>
-      </c>
-      <c r="C65" s="10">
-        <f>B65/4</f>
+      <c r="B65" s="8">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="9">
-        <v>8</v>
-      </c>
-      <c r="C66" s="10">
-        <f>B66/4</f>
+      <c r="B66" s="8">
+        <v>8</v>
+      </c>
+      <c r="C66" s="9">
+        <f t="shared" ref="C66:C97" si="2">B66/4</f>
         <v>2</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="9">
-        <v>4</v>
-      </c>
-      <c r="C67" s="10">
-        <f>B67/4</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="B67" s="8">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="9">
-        <v>4</v>
-      </c>
-      <c r="C68" s="10">
-        <f>B68/4</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="B68" s="8">
+        <v>4</v>
+      </c>
+      <c r="C68" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="9">
-        <v>4</v>
-      </c>
-      <c r="C69" s="10">
-        <f>B69/4</f>
-        <v>1</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="B69" s="8">
+        <v>4</v>
+      </c>
+      <c r="C69" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="9">
-        <v>4</v>
-      </c>
-      <c r="C70" s="10">
-        <f>B70/4</f>
-        <v>1</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="9" t="s">
+      <c r="B70" s="8">
+        <v>4</v>
+      </c>
+      <c r="C70" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="9">
-        <v>4</v>
-      </c>
-      <c r="C71" s="10">
-        <f>B71/4</f>
-        <v>1</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="B71" s="8">
+        <v>4</v>
+      </c>
+      <c r="C71" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="9">
-        <v>4</v>
-      </c>
-      <c r="C72" s="10">
-        <f>B72/4</f>
-        <v>1</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="9" t="s">
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="9">
-        <v>4</v>
-      </c>
-      <c r="C73" s="10">
-        <f>B73/4</f>
-        <v>1</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="9" t="s">
+      <c r="B73" s="8">
+        <v>4</v>
+      </c>
+      <c r="C73" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="9">
-        <v>4</v>
-      </c>
-      <c r="C74" s="10">
-        <f>B74/4</f>
-        <v>1</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="9" t="s">
+      <c r="B74" s="8">
+        <v>4</v>
+      </c>
+      <c r="C74" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="9">
-        <v>4</v>
-      </c>
-      <c r="C75" s="10">
-        <f>B75/4</f>
-        <v>1</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="B75" s="8">
+        <v>4</v>
+      </c>
+      <c r="C75" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="9">
-        <v>4</v>
-      </c>
-      <c r="C76" s="10">
-        <f>B76/4</f>
-        <v>1</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="B76" s="8">
+        <v>4</v>
+      </c>
+      <c r="C76" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="9">
-        <v>4</v>
-      </c>
-      <c r="C77" s="10">
-        <f>B77/4</f>
-        <v>1</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="9" t="s">
+      <c r="B77" s="8">
+        <v>4</v>
+      </c>
+      <c r="C77" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="9">
-        <v>4</v>
-      </c>
-      <c r="C78" s="10">
-        <f>B78/4</f>
-        <v>1</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="9" t="s">
+      <c r="B78" s="8">
+        <v>4</v>
+      </c>
+      <c r="C78" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="9">
-        <v>4</v>
-      </c>
-      <c r="C79" s="10">
-        <f>B79/4</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="9" t="s">
+      <c r="B79" s="8">
+        <v>4</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="9">
-        <v>4</v>
-      </c>
-      <c r="C80" s="10">
-        <f>B80/4</f>
-        <v>1</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="B80" s="8">
+        <v>4</v>
+      </c>
+      <c r="C80" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="9">
-        <v>4</v>
-      </c>
-      <c r="C81" s="10">
-        <f>B81/4</f>
-        <v>1</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="9" t="s">
+      <c r="B81" s="8">
+        <v>4</v>
+      </c>
+      <c r="C81" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="9">
-        <v>4</v>
-      </c>
-      <c r="C82" s="10">
-        <f>B82/4</f>
-        <v>1</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="9" t="s">
+      <c r="B82" s="8">
+        <v>4</v>
+      </c>
+      <c r="C82" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="9">
-        <v>4</v>
-      </c>
-      <c r="C83" s="10">
-        <f>B83/4</f>
-        <v>1</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="9" t="s">
+      <c r="B83" s="8">
+        <v>4</v>
+      </c>
+      <c r="C83" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="9">
-        <v>4</v>
-      </c>
-      <c r="C84" s="10">
-        <f>B84/4</f>
-        <v>1</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="9" t="s">
+      <c r="B84" s="8">
+        <v>4</v>
+      </c>
+      <c r="C84" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="9">
-        <v>4</v>
-      </c>
-      <c r="C85" s="10">
-        <f>B85/4</f>
-        <v>1</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="9" t="s">
+      <c r="B85" s="8">
+        <v>4</v>
+      </c>
+      <c r="C85" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="9">
-        <v>4</v>
-      </c>
-      <c r="C86" s="10">
-        <f>B86/4</f>
-        <v>1</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="9" t="s">
+      <c r="B86" s="8">
+        <v>4</v>
+      </c>
+      <c r="C86" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="9">
-        <v>4</v>
-      </c>
-      <c r="C87" s="10">
-        <f>B87/4</f>
-        <v>1</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="9" t="s">
+      <c r="B87" s="8">
+        <v>4</v>
+      </c>
+      <c r="C87" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="9">
-        <v>4</v>
-      </c>
-      <c r="C88" s="10">
-        <f>B88/4</f>
-        <v>1</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="9" t="s">
+      <c r="B88" s="8">
+        <v>4</v>
+      </c>
+      <c r="C88" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="9">
-        <v>4</v>
-      </c>
-      <c r="C89" s="10">
-        <f>B89/4</f>
-        <v>1</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="B89" s="8">
+        <v>4</v>
+      </c>
+      <c r="C89" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="9">
-        <v>4</v>
-      </c>
-      <c r="C90" s="10">
-        <f>B90/4</f>
-        <v>1</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="9" t="s">
+      <c r="B90" s="8">
+        <v>4</v>
+      </c>
+      <c r="C90" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="11">
-        <v>4</v>
-      </c>
-      <c r="C91" s="8">
-        <f>B91/4</f>
-        <v>1</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="11" t="s">
+      <c r="B91" s="10">
+        <v>4</v>
+      </c>
+      <c r="C91" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="11">
-        <v>4</v>
-      </c>
-      <c r="C92" s="8">
-        <f>B92/4</f>
-        <v>1</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="11" t="s">
+      <c r="B92" s="10">
+        <v>4</v>
+      </c>
+      <c r="C92" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="11">
-        <v>4</v>
-      </c>
-      <c r="C93" s="8">
-        <f>B93/4</f>
-        <v>1</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="11" t="s">
+      <c r="B93" s="10">
+        <v>4</v>
+      </c>
+      <c r="C93" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="11">
-        <v>4</v>
-      </c>
-      <c r="C94" s="8">
-        <f>B94/4</f>
-        <v>1</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="11" t="s">
+      <c r="B94" s="10">
+        <v>4</v>
+      </c>
+      <c r="C94" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>52</v>
       </c>
-      <c r="C95" s="8">
-        <f>B95/4</f>
+      <c r="C95" s="7">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="11" t="s">
+      <c r="D95" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>44</v>
       </c>
-      <c r="C96" s="8">
-        <f>B96/4</f>
+      <c r="C96" s="7">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>32</v>
       </c>
-      <c r="C97" s="8">
-        <f>B97/4</f>
-        <v>8</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" s="11" t="s">
+      <c r="C97" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>28</v>
       </c>
-      <c r="C98" s="8">
-        <f>B98/4</f>
+      <c r="C98" s="7">
+        <f t="shared" ref="C98:C129" si="3">B98/4</f>
         <v>7</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>24</v>
       </c>
-      <c r="C99" s="8">
-        <f>B99/4</f>
-        <v>6</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="11" t="s">
+      <c r="C99" s="7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="10">
         <v>24</v>
       </c>
-      <c r="C100" s="8">
-        <f>B100/4</f>
-        <v>6</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="11" t="s">
+      <c r="C100" s="7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B101" s="10">
         <v>24</v>
       </c>
-      <c r="C101" s="8">
-        <f>B101/4</f>
-        <v>6</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="11" t="s">
+      <c r="C101" s="7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <v>20</v>
       </c>
-      <c r="C102" s="8">
-        <f>B102/4</f>
-        <v>5</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="C102" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="10">
         <v>20</v>
       </c>
-      <c r="C103" s="8">
-        <f>B103/4</f>
-        <v>5</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="11" t="s">
+      <c r="C103" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B104" s="10">
         <v>20</v>
       </c>
-      <c r="C104" s="8">
-        <f>B104/4</f>
-        <v>5</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="11" t="s">
+      <c r="C104" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="10">
         <v>20</v>
       </c>
-      <c r="C105" s="8">
-        <f>B105/4</f>
-        <v>5</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="11" t="s">
+      <c r="C105" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B106" s="10">
         <v>16</v>
       </c>
-      <c r="C106" s="8">
-        <f>B106/4</f>
-        <v>4</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E106" s="11" t="s">
+      <c r="C106" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="11">
         <v>16</v>
       </c>
-      <c r="C107" s="10">
-        <f>B107/4</f>
-        <v>4</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E107" s="12" t="s">
+      <c r="C107" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="11">
         <v>16</v>
       </c>
-      <c r="C108" s="10">
-        <f>B108/4</f>
-        <v>4</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E108" s="12" t="s">
+      <c r="C108" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="11">
         <v>12</v>
       </c>
-      <c r="C109" s="10">
-        <f>B109/4</f>
+      <c r="C109" s="9">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E109" s="12" t="s">
+      <c r="D109" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="11">
         <v>12</v>
       </c>
-      <c r="C110" s="10">
-        <f>B110/4</f>
+      <c r="C110" s="9">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E110" s="12" t="s">
+      <c r="D110" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="12">
-        <v>8</v>
-      </c>
-      <c r="C111" s="10">
-        <f>B111/4</f>
+      <c r="B111" s="11">
+        <v>8</v>
+      </c>
+      <c r="C111" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D111" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="12" t="s">
+      <c r="D111" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="12">
-        <v>8</v>
-      </c>
-      <c r="C112" s="10">
-        <f>B112/4</f>
+      <c r="B112" s="11">
+        <v>8</v>
+      </c>
+      <c r="C112" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D112" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="12" t="s">
+      <c r="D112" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="12">
-        <v>8</v>
-      </c>
-      <c r="C113" s="10">
-        <f>B113/4</f>
+      <c r="B113" s="11">
+        <v>8</v>
+      </c>
+      <c r="C113" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D113" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="12" t="s">
+      <c r="D113" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="12">
-        <v>8</v>
-      </c>
-      <c r="C114" s="10">
-        <f>B114/4</f>
+      <c r="B114" s="11">
+        <v>8</v>
+      </c>
+      <c r="C114" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="12" t="s">
+      <c r="D114" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="12">
-        <v>8</v>
-      </c>
-      <c r="C115" s="10">
-        <f>B115/4</f>
+      <c r="B115" s="11">
+        <v>8</v>
+      </c>
+      <c r="C115" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="12" t="s">
+      <c r="D115" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="12">
-        <v>8</v>
-      </c>
-      <c r="C116" s="10">
-        <f>B116/4</f>
+      <c r="B116" s="11">
+        <v>8</v>
+      </c>
+      <c r="C116" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="12" t="s">
+      <c r="D116" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="12">
-        <v>8</v>
-      </c>
-      <c r="C117" s="10">
-        <f>B117/4</f>
+      <c r="B117" s="11">
+        <v>8</v>
+      </c>
+      <c r="C117" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="12">
-        <v>8</v>
-      </c>
-      <c r="C118" s="10">
-        <f>B118/4</f>
+      <c r="B118" s="11">
+        <v>8</v>
+      </c>
+      <c r="C118" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E118" s="12" t="s">
+      <c r="D118" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="12">
-        <v>8</v>
-      </c>
-      <c r="C119" s="10">
-        <f>B119/4</f>
+      <c r="B119" s="11">
+        <v>8</v>
+      </c>
+      <c r="C119" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D119" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119" s="12" t="s">
+      <c r="D119" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="12">
-        <v>8</v>
-      </c>
-      <c r="C120" s="10">
-        <f>B120/4</f>
+      <c r="B120" s="11">
+        <v>8</v>
+      </c>
+      <c r="C120" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D120" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E120" s="12" t="s">
+      <c r="D120" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="12">
-        <v>4</v>
-      </c>
-      <c r="C121" s="10">
-        <f>B121/4</f>
-        <v>1</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E121" s="12" t="s">
+      <c r="B121" s="11">
+        <v>4</v>
+      </c>
+      <c r="C121" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="12">
-        <v>4</v>
-      </c>
-      <c r="C122" s="10">
-        <f>B122/4</f>
-        <v>1</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E122" s="12" t="s">
+      <c r="B122" s="11">
+        <v>4</v>
+      </c>
+      <c r="C122" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="12">
-        <v>4</v>
-      </c>
-      <c r="C123" s="10">
-        <f>B123/4</f>
-        <v>1</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E123" s="12" t="s">
+      <c r="B123" s="11">
+        <v>4</v>
+      </c>
+      <c r="C123" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="12">
-        <v>4</v>
-      </c>
-      <c r="C124" s="10">
-        <f>B124/4</f>
-        <v>1</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E124" s="12" t="s">
+      <c r="B124" s="11">
+        <v>4</v>
+      </c>
+      <c r="C124" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="12">
-        <v>4</v>
-      </c>
-      <c r="C125" s="10">
-        <f>B125/4</f>
-        <v>1</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E125" s="12" t="s">
+      <c r="B125" s="11">
+        <v>4</v>
+      </c>
+      <c r="C125" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="12">
-        <v>4</v>
-      </c>
-      <c r="C126" s="10">
-        <f>B126/4</f>
-        <v>1</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E126" s="12" t="s">
+      <c r="B126" s="11">
+        <v>4</v>
+      </c>
+      <c r="C126" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="12">
-        <v>4</v>
-      </c>
-      <c r="C127" s="10">
-        <f>B127/4</f>
-        <v>1</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="12" t="s">
+      <c r="B127" s="11">
+        <v>4</v>
+      </c>
+      <c r="C127" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="12">
-        <v>4</v>
-      </c>
-      <c r="C128" s="10">
-        <f>B128/4</f>
-        <v>1</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E128" s="12" t="s">
+      <c r="B128" s="11">
+        <v>4</v>
+      </c>
+      <c r="C128" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="12">
-        <v>4</v>
-      </c>
-      <c r="C129" s="10">
-        <f>B129/4</f>
-        <v>1</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E129" s="12" t="s">
+      <c r="B129" s="11">
+        <v>4</v>
+      </c>
+      <c r="C129" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="12">
-        <v>4</v>
-      </c>
-      <c r="C130" s="10">
-        <f>B130/4</f>
-        <v>1</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E130" s="12" t="s">
+      <c r="B130" s="11">
+        <v>4</v>
+      </c>
+      <c r="C130" s="9">
+        <f t="shared" ref="C130:C136" si="4">B130/4</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="12">
-        <v>4</v>
-      </c>
-      <c r="C131" s="10">
-        <f>B131/4</f>
-        <v>1</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E131" s="12" t="s">
+      <c r="B131" s="11">
+        <v>4</v>
+      </c>
+      <c r="C131" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="12">
-        <v>4</v>
-      </c>
-      <c r="C132" s="10">
-        <f>B132/4</f>
-        <v>1</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E132" s="12" t="s">
+      <c r="B132" s="11">
+        <v>4</v>
+      </c>
+      <c r="C132" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="12">
         <v>20</v>
       </c>
-      <c r="C133" s="14">
-        <f>B133/4</f>
-        <v>5</v>
-      </c>
-      <c r="D133" s="13" t="s">
+      <c r="C133" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="E133" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="13">
-        <v>8</v>
-      </c>
-      <c r="C134" s="14">
-        <f>B134/4</f>
+      <c r="B134" s="12">
+        <v>8</v>
+      </c>
+      <c r="C134" s="13">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E134" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="13">
-        <v>8</v>
-      </c>
-      <c r="C135" s="14">
-        <f>B135/4</f>
+      <c r="B135" s="12">
+        <v>8</v>
+      </c>
+      <c r="C135" s="13">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="13" t="s">
+      <c r="E135" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="13">
-        <v>4</v>
-      </c>
-      <c r="C136" s="14">
-        <f>B136/4</f>
-        <v>1</v>
-      </c>
-      <c r="D136" s="13" t="s">
+      <c r="B136" s="12">
+        <v>4</v>
+      </c>
+      <c r="C136" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="E136" s="12" t="s">
         <v>6</v>
       </c>
     </row>
